--- a/results/I3_N5_M3_T45_C200_DepLowerLeft_s0_P1_res.xlsx
+++ b/results/I3_N5_M3_T45_C200_DepLowerLeft_s0_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>891.7505677310625</v>
+        <v>830.3615692438677</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.0429999828338623</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.17693588083531</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.389382209119649</v>
+        <v>8.161660554742911</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.383014059337581</v>
+        <v>7.752483473055587</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>854.5800000000092</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -584,10 +584,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -868,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -929,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.88634790002131</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -945,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>5.187002988238973</v>
       </c>
     </row>
     <row r="6">
@@ -953,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.37739353073907</v>
+        <v>35.91835541786301</v>
       </c>
     </row>
     <row r="7">
@@ -961,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>37.07084158034161</v>
+        <v>33.18449368032031</v>
       </c>
     </row>
     <row r="8">
@@ -969,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44.8233250533972</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -977,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>37.80519234793928</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10">
@@ -985,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>41.34615423506322</v>
       </c>
     </row>
   </sheetData>
@@ -999,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1045,13 +1045,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1104,12 +1104,68 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>4</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1212,7 +1268,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>68.17500000000065</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
@@ -1223,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>76.13000000000065</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
@@ -1234,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>75.84000000000066</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
@@ -1245,7 +1301,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>76.91000000000065</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -1256,7 +1312,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>75.84999999999999</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12">
@@ -1267,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>179.5750000000014</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13">
@@ -1278,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>198.1950000000015</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
@@ -1289,7 +1345,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>192.5550000000015</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
@@ -1300,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>202.12</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
@@ -1311,7 +1367,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>198.4800000000014</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
@@ -1322,7 +1378,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -1333,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
@@ -1344,7 +1400,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20">
@@ -1355,7 +1411,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -1366,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22">
@@ -1377,7 +1433,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.06</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23">
@@ -1388,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.4349999999993</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24">
@@ -1399,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>206.715</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25">
@@ -1410,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>193.8399999999993</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26">
@@ -1421,7 +1477,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>203.27</v>
+        <v>247</v>
       </c>
     </row>
     <row r="27">
@@ -1432,7 +1488,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>256.7950000000012</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28">
@@ -1443,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>285.5400000000013</v>
+        <v>215</v>
       </c>
     </row>
     <row r="29">
@@ -1454,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>284.0350000000012</v>
+        <v>220</v>
       </c>
     </row>
     <row r="30">
@@ -1465,7 +1521,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>293.9799999999997</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31">
@@ -1476,7 +1532,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>288.8950000000012</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32">
@@ -1487,7 +1543,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>256.7950000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1498,7 +1554,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>285.5400000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1509,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>284.0350000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1520,7 +1576,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>293.9799999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1531,7 +1587,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>288.8950000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1542,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>208.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1553,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.4349999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1564,7 +1620,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>206.715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1575,7 +1631,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>193.8399999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1586,7 +1642,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1597,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43">
@@ -1608,7 +1664,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44">
@@ -1619,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
     </row>
     <row r="45">
@@ -1630,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46">
@@ -1641,7 +1697,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -1688,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>56.79500000000121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1699,7 +1755,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>85.54000000000127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1710,7 +1766,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>84.03500000000122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1721,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>93.97999999999973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1732,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>88.89500000000123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1743,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>8.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1765,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>6.715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1787,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1798,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -1809,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
@@ -1820,7 +1876,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
@@ -1831,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -1842,7 +1898,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1889,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1900,7 +1956,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1911,7 +1967,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1922,7 +1978,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1933,7 +1989,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1999,7 +2055,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -2010,7 +2066,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
@@ -2021,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
@@ -2032,7 +2088,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -2043,7 +2099,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -2167,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2194,10 +2250,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2208,7 +2264,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2230,7 +2286,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2238,10 +2294,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2252,7 +2308,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2263,7 +2319,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2274,7 +2330,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2285,9 +2341,20 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
